--- a/data/trans_camb/IP42B-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP42B-Habitat-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -527,13 +527,13 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="F1" s="3" t="n"/>
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -601,32 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,63</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>16,27</t>
+          <t>1,51</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>17,14</t>
+          <t>6,14</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>8,97</t>
+          <t>7,66</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>6,79</t>
+          <t>6,47</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>13,48</t>
+          <t>5,2</t>
         </is>
       </c>
     </row>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,42; 18,24</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 51,86</t>
+          <t>-9,09; 9,62</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 69,18</t>
+          <t>-3,01; 15,37</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 37,99</t>
+          <t>-1,25; 16,25</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 33,63</t>
+          <t>-0,63; 13,28</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>3,3; 35,9</t>
+          <t>-1,31; 11,74</t>
         </is>
       </c>
     </row>
@@ -677,32 +677,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>126,08%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>28,69%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>168,1%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>209,89%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>150,88%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>121,22%</t>
         </is>
       </c>
     </row>
@@ -715,39 +715,39 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>-81,11; —</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-76,03; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-42,11; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,73; 927,07</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,7; 817,12</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -757,32 +757,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>7,47</t>
+          <t>7,76</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>5,72</t>
+          <t>-1,89</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>3,82</t>
+          <t>6,45</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,85</t>
+          <t>2,96</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>6,0</t>
+          <t>6,78</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>3,14</t>
+          <t>0,54</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,23; 18,35</t>
+          <t>-2,4; 19,32</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,15; 14,56</t>
+          <t>-10,66; 6,32</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-10,73; 16,26</t>
+          <t>-1,97; 15,01</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-14,3; 10,08</t>
+          <t>-5,42; 9,7</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,9; 14,25</t>
+          <t>-0,21; 13,27</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-4,23; 10,66</t>
+          <t>-6,41; 6,1</t>
         </is>
       </c>
     </row>
@@ -833,32 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>163,56%</t>
+          <t>82,12%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>125,35%</t>
+          <t>-20,02%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>52,96%</t>
+          <t>131,49%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-11,76%</t>
+          <t>60,33%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>107,9%</t>
+          <t>94,64%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>56,5%</t>
+          <t>7,53%</t>
         </is>
       </c>
     </row>
@@ -871,39 +871,39 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-70,62; —</t>
+          <t>-22,41; 483,38</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-67,82; —</t>
+          <t>-73,34; 171,78</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,61; 897,89</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-67,18; 623,42</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-32,19; 732,25</t>
+          <t>-7,31; 334,8</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-58,46; 583,57</t>
+          <t>-58,42; 144,53</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -913,32 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>6,45</t>
+          <t>9,49</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>2,96</t>
+          <t>-2,04</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>7,76</t>
+          <t>12,5</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-1,89</t>
+          <t>-6,84</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>6,78</t>
+          <t>10,88</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,54</t>
+          <t>-4,64</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,44; 15,13</t>
+          <t>-3,11; 22,57</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,48; 9,84</t>
+          <t>-14,26; 8,35</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,24; 19,15</t>
+          <t>-1,84; 26,04</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-11,62; 6,06</t>
+          <t>-20,67; 2,37</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 13,78</t>
+          <t>0,91; 20,12</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-5,21; 6,15</t>
+          <t>-13,04; 2,95</t>
         </is>
       </c>
     </row>
@@ -989,32 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>131,49%</t>
+          <t>83,96%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>60,33%</t>
+          <t>-18,03%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>82,12%</t>
+          <t>116,32%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-20,02%</t>
+          <t>-63,67%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>94,64%</t>
+          <t>98,55%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>7,53%</t>
+          <t>-41,99%</t>
         </is>
       </c>
     </row>
@@ -1027,39 +1027,39 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-52,01; 815,65</t>
+          <t>-26,83; 489,72</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-65,69; 822,79</t>
+          <t>-79,28; 215,5</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-33,88; 432,84</t>
+          <t>-25,95; 700,76</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-75,08; 154,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-4,06; 351,3</t>
+          <t>-1,34; 344,59</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-51,31; 156,12</t>
+          <t>-76,32; 59,26</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1069,32 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>12,5</t>
+          <t>2,27</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-6,84</t>
+          <t>0,22</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>9,49</t>
+          <t>3,12</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-2,04</t>
+          <t>-4,05</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>10,88</t>
+          <t>2,66</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-4,64</t>
+          <t>-2,1</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,51; 25,04</t>
+          <t>-10,74; 14,38</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-19,14; 2,38</t>
+          <t>-10,98; 11,38</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,05; 21,47</t>
+          <t>-7,12; 14,21</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-13,64; 7,85</t>
+          <t>-13,19; 4,38</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,49; 20,32</t>
+          <t>-5,18; 11,0</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-13,53; 2,06</t>
+          <t>-9,37; 4,72</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>116,32%</t>
+          <t>22,74%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-63,67%</t>
+          <t>2,22%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>83,96%</t>
+          <t>30,22%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-18,03%</t>
+          <t>-39,2%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>98,55%</t>
+          <t>26,11%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-41,99%</t>
+          <t>-20,6%</t>
         </is>
       </c>
     </row>
@@ -1183,39 +1183,39 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-19,79; 708,35</t>
+          <t>-71,93; 375,37</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 175,15</t>
+          <t>-69,76; 370,93</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-20,59; 459,49</t>
+          <t>-51,44; 226,46</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-73,35; 201,68</t>
+          <t>-88,2; 104,49</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-3,62; 313,93</t>
+          <t>-39,95; 178,59</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-76,83; 52,96</t>
+          <t>-63,96; 87,06</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1225,32 +1225,32 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>3,12</t>
+          <t>6,61</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-4,05</t>
+          <t>-0,76</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>2,27</t>
+          <t>6,72</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,22</t>
+          <t>0,17</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>2,66</t>
+          <t>6,72</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-2,1</t>
+          <t>-0,25</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-7,31; 14,1</t>
+          <t>0,68; 12,94</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-12,93; 5,39</t>
+          <t>-5,97; 3,78</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-10,58; 13,47</t>
+          <t>1,05; 12,01</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-10,37; 11,33</t>
+          <t>-4,21; 4,26</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-5,31; 11,11</t>
+          <t>2,55; 10,42</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-9,3; 4,45</t>
+          <t>-3,99; 3,09</t>
         </is>
       </c>
     </row>
@@ -1301,32 +1301,32 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>30,22%</t>
+          <t>71,93%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-39,2%</t>
+          <t>-8,26%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>22,74%</t>
+          <t>91,85%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>2,22%</t>
+          <t>2,37%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>26,11%</t>
+          <t>82,21%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-20,6%</t>
+          <t>-3,05%</t>
         </is>
       </c>
     </row>
@@ -1339,200 +1339,44 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-52,96; 260,95</t>
+          <t>3,9; 202,66</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-84,14; 128,54</t>
+          <t>-50,08; 61,13</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-72,04; 307,04</t>
+          <t>5,6; 221,98</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-68,79; 347,76</t>
+          <t>-43,68; 85,14</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-40,23; 169,51</t>
+          <t>20,3; 168,19</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-66,02; 80,37</t>
+          <t>-38,31; 49,73</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>6,72</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>0,17</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>6,61</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>-0,76</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>6,72</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>-0,25</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>1,43; 11,66</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>-4,59; 3,79</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>0,74; 12,39</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>-5,65; 4,68</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>2,46; 10,55</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>-3,88; 3,04</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>91,85%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>2,37%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>71,93%</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>-8,26%</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>82,21%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>-3,05%</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>9,76; 226,92</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>-46,49; 75,52</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>6,2; 202,1</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>-47,13; 76,58</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>23,26; 167,61</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>-36,29; 51,88</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="C1:D1"/>
@@ -1541,7 +1385,6 @@
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
